--- a/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2880E-A895-42EE-93F0-4546B85A7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67297DE0-67C0-4F6C-8508-450A5F5D84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1665" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20595" yWindow="1785" windowWidth="9570" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,13 +416,11 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -488,9 +486,15 @@
       <c r="E3" s="2">
         <v>3.7360068502849147E-2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3">
+        <v>3.6175602190876051</v>
+      </c>
+      <c r="G3">
+        <v>9.1649720136256541</v>
+      </c>
+      <c r="H3">
+        <v>1.627446508748629</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -508,9 +512,6 @@
       <c r="E4" s="2">
         <v>4.290622048552177E-2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -528,9 +529,6 @@
       <c r="E5" s="2">
         <v>2.086420999810433E-2</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -548,9 +546,6 @@
       <c r="E6" s="2">
         <v>6.2821247026404303E-3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -568,9 +563,6 @@
       <c r="E7" s="2">
         <v>1.3988671476274741E-3</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -588,9 +580,6 @@
       <c r="E8" s="2">
         <v>2.5387384256709211E-4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -608,9 +597,6 @@
       <c r="E9" s="2">
         <v>3.9584703003019878E-5</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -628,9 +614,6 @@
       <c r="E10" s="2">
         <v>5.4555273429343578E-6</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -648,9 +631,6 @@
       <c r="E11" s="2">
         <v>6.7568211104459327E-7</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -664,9 +644,6 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
@@ -1,76 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67297DE0-67C0-4F6C-8508-450A5F5D84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="1785" windowWidth="9570" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Cuiaba Win% if score</t>
-  </si>
-  <si>
-    <t>Cruzeiro Win% if score</t>
-  </si>
-  <si>
-    <t>Cuiaba Win%</t>
-  </si>
-  <si>
-    <t>Cruzeiro Win%</t>
-  </si>
-  <si>
-    <t>empate</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,238 +420,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cuiaba Win% if score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cruzeiro Win% if score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cuiaba Win%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cruzeiro Win%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>empate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.1681329909401495</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2899635655294032</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2764293997715987</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1091110805917672</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.614459519636634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0.2997811228462866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3589748941254012</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07749417530532481</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03736006850284915</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.617560219087605</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.164972013625654</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.627446508748629</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>0.2672548710174646</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2222054594636234</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.103076397468768</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04290622048552177</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>0.1588384783413798</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09169678627198857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06167895104635399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02086420999810433</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="n">
+        <v>0.07080225172067009</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02838015535118046</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02430988201041969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00628212470264043</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="n">
+        <v>0.02524808296359097</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00702692646495229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007437019749679901</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001398867147627474</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1681329909401495</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.28996356552940322</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>0.27642939977159869</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.1091110805917672</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.61445951963663403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.29978112284628661</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.35897489412540118</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.7494175305324806E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.7360068502849147E-2</v>
-      </c>
-      <c r="F3">
-        <v>3.6175602190876051</v>
-      </c>
-      <c r="G3">
-        <v>9.1649720136256541</v>
-      </c>
-      <c r="H3">
-        <v>1.627446508748629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.26725487101746459</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.22220545946362341</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.103076397468768</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.290622048552177E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.15883847834137979</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.1696786271988573E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.1678951046353993E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.086420999810433E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7.080225172067009E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.838015535118046E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.4309882010419691E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6.2821247026404303E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.5248082963590969E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.0269264649522904E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.4370197496799011E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.3988671476274741E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7.5028886540137807E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.44988916060182E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.9077442828295071E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.5387384256709211E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>0.007502888654013781</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00144988916060182</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.001907744282829507</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0002538738425670921</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.9110929243009399E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.5642325440357929E-4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.2580606533674549E-4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.9584703003019878E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>0.00191109292430094</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0002564232544035793</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0004258060653367455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.958470300301988e-05</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>4.2593483550357192E-4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.9681498618953867E-5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.4378550337367147E-5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.4555273429343578E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>0.0004259348355035719</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.968149861895387e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.437855033736715e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.455527342934358e-06</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>8.4382423522540978E-5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.4584105878072127E-6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.5045292548620869E-5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.7568211104459327E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" t="n">
+        <v>8.438242352254098e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.458410587807213e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.504529254862087e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.756821110445933e-07</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.5045386114069049E-5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.7575123077053313E-7</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" t="n">
+        <v>1.504538611406905e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.757512307705331e-07</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro.xlsx
@@ -1,37 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8662A5-AE91-499C-8E66-8188F68B224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20610" yWindow="1665" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cuiaba Win% if score</t>
+  </si>
+  <si>
+    <t>Cruzeiro Win% if score</t>
+  </si>
+  <si>
+    <t>Cuiaba Win%</t>
+  </si>
+  <si>
+    <t>Cruzeiro Win%</t>
+  </si>
+  <si>
+    <t>empate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +85,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,279 +412,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cuiaba</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cruzeiro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cuiaba Win% if score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cruzeiro Win% if score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cuiaba Win%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cruzeiro Win%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>empate</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.1681329909401495</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2899635655294032</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.2764293997715987</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2" s="2">
+        <v>0.28996356552940322</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0.27642939977159869</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.1091110805917672</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.614459519636634</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="H2" s="2">
+        <v>0.61445951963663403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.2997811228462866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3589748941254012</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07749417530532481</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03736006850284915</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.617560219087605</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.164972013625654</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B3" s="2">
+        <v>0.29978112284628661</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.35897489412540118</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.7494175305324806E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.7360068502849147E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.6175602190876051</v>
+      </c>
+      <c r="G3">
+        <v>9.1649720136256541</v>
+      </c>
+      <c r="H3">
         <v>1.627446508748629</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.2672548710174646</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2222054594636234</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" s="2">
+        <v>0.26725487101746459</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.22220545946362341</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.103076397468768</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.04290622048552177</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E4" s="2">
+        <v>4.290622048552177E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.1588384783413798</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09169678627198857</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06167895104635399</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02086420999810433</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" s="2">
+        <v>0.15883847834137979</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.1696786271988573E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.1678951046353993E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.086420999810433E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.07080225172067009</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02838015535118046</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02430988201041969</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.00628212470264043</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="2">
+        <v>7.080225172067009E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.838015535118046E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.4309882010419691E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.2821247026404303E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.02524808296359097</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.00702692646495229</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.007437019749679901</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.001398867147627474</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="2">
+        <v>2.5248082963590969E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0269264649522904E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.4370197496799011E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.3988671476274741E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.007502888654013781</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00144988916060182</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001907744282829507</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0002538738425670921</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="2">
+        <v>7.5028886540137807E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.44988916060182E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.9077442828295071E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5387384256709211E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.00191109292430094</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0002564232544035793</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0004258060653367455</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.958470300301988e-05</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="2">
+        <v>1.9110929243009399E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.5642325440357929E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.2580606533674549E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.9584703003019878E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0004259348355035719</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.968149861895387e-05</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.437855033736715e-05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.455527342934358e-06</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="2">
+        <v>4.2593483550357192E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.9681498618953867E-5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.4378550337367147E-5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.4555273429343578E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>8.438242352254098e-05</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.458410587807213e-06</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.504529254862087e-05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.756821110445933e-07</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="2">
+        <v>8.4382423522540978E-5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.4584105878072127E-6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.5045292548620869E-5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.7568211104459327E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.504538611406905e-05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.757512307705331e-07</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="B12" s="2">
+        <v>1.5045386114069049E-5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.7575123077053313E-7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
